--- a/story/Activity Story 活动剧情/a001 Grani and the Knights' Treasure 骑兵与猎人 騎兵と狩人/level_a001_05_beg.xlsx
+++ b/story/Activity Story 活动剧情/a001 Grani and the Knights' Treasure 骑兵与猎人 騎兵と狩人/level_a001_05_beg.xlsx
@@ -428,7 +428,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Grani"]   "Even with their hearts impaled by the enemy's blades, the King's knights still held on to their spears."
+    <t xml:space="preserve">[name="Grani"]   'Even with their hearts impaled by the enemy's blades, the King's knights still held on to their spears.'
 </t>
   </si>
   <si>
